--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assists with tracking the state of the lab order and its completion status</t>
+    <t>Assists with tracking the state of the lab order and its completion status.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,25 +619,25 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-reason-sample-cancelled-or-rejected</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
   </si>
   <si>
     <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
@@ -1880,7 +1880,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.60546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.75" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3901,13 +3901,11 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3943,7 +3941,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3954,10 +3952,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3983,14 +3981,14 @@
         <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4015,7 +4013,7 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>202</v>
@@ -4039,7 +4037,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4359,7 +4357,7 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>228</v>
@@ -5727,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>322</v>
@@ -7549,7 +7547,7 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>404</v>
@@ -8231,7 +8229,7 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>420</v>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="582">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,6 +471,16 @@
     <t>The business identifier for this task.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
+  </si>
+  <si>
     <t>Request.identifier, Event.identifier</t>
   </si>
   <si>
@@ -478,6 +488,454 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL</t>
+  </si>
+  <si>
+    <t>FILL</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.id</t>
+  </si>
+  <si>
+    <t>Task.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.use</t>
+  </si>
+  <si>
+    <t>Task.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type</t>
+  </si>
+  <si>
+    <t>Task.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.id</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding.id</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding.system</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding.version</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding.code</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding.display</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.type.text</t>
+  </si>
+  <si>
+    <t>Task.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.system</t>
+  </si>
+  <si>
+    <t>Task.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/lab-integration/order-id</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.value</t>
+  </si>
+  <si>
+    <t>Task.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.period</t>
+  </si>
+  <si>
+    <t>Task.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Task.identifier:FILL.assigner</t>
+  </si>
+  <si>
+    <t>Task.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Task.instantiatesCanonical</t>
@@ -588,9 +1046,6 @@
     <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
   </si>
   <si>
@@ -604,10 +1059,6 @@
   </si>
   <si>
     <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason for current status</t>
@@ -737,10 +1188,6 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-readable explanation of task</t>
   </si>
   <si>
@@ -825,10 +1272,6 @@
     <t>Task.executionPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Start and end time of execution</t>
   </si>
   <si>
@@ -1133,25 +1576,7 @@
     <t>Task.restriction.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Task.restriction.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Task.restriction.modifierExtension</t>
@@ -1329,44 +1754,9 @@
     <t>Task.output.type.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Task.output.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>Task.output.type.coding.id</t>
   </si>
   <si>
@@ -1376,143 +1766,22 @@
     <t>Task.output.type.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
     <t>Task.output.type.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
     <t>Task.output.type.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
     <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-vl-result-code</t>
   </si>
   <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
     <t>Task.output.type.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
     <t>Task.output.type.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
     <t>Task.output.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -1846,7 +2115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1855,8 +2124,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.2890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.03515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1874,7 +2143,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -3115,16 +3384,16 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>143</v>
@@ -3142,13 +3411,13 @@
         <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3156,18 +3425,20 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>86</v>
@@ -3179,21 +3450,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3241,13 +3510,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -3256,13 +3525,13 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3270,10 +3539,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3293,21 +3562,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3355,7 +3622,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3367,13 +3634,13 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3384,14 +3651,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3407,18 +3674,20 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3455,19 +3724,19 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3479,13 +3748,13 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3496,10 +3765,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3516,23 +3785,25 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3557,13 +3828,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3581,7 +3852,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3596,24 +3867,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3624,7 +3895,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3636,19 +3907,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3673,13 +3944,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3697,13 +3968,13 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3712,24 +3983,24 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3737,7 +4008,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3746,24 +4017,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3787,13 +4056,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3811,10 +4080,10 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3823,16 +4092,16 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3840,21 +4109,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3863,19 +4132,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3901,47 +4170,49 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3952,7 +4223,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>197</v>
@@ -3966,7 +4237,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3978,17 +4249,19 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4013,10 +4286,10 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -4037,13 +4310,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4055,21 +4328,21 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4077,7 +4350,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -4089,20 +4362,18 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4112,7 +4383,7 @@
         <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>77</v>
@@ -4127,13 +4398,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4151,10 +4422,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -4163,16 +4434,16 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4180,21 +4451,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4206,24 +4477,22 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4243,52 +4512,52 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4296,10 +4565,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4322,18 +4591,20 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4342,7 +4613,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4357,13 +4628,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4381,7 +4652,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4396,24 +4667,24 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4436,15 +4707,17 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4493,7 +4766,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4511,21 +4784,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4548,19 +4821,17 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4570,7 +4841,7 @@
         <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>77</v>
@@ -4609,7 +4880,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4627,25 +4898,25 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4664,17 +4935,17 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4723,7 +4994,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4738,24 +5009,24 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4778,17 +5049,19 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4837,7 +5110,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4852,24 +5125,24 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4877,7 +5150,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4892,16 +5165,20 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4949,7 +5226,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4964,32 +5241,32 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -5001,33 +5278,35 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>77</v>
@@ -5063,7 +5342,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5072,38 +5351,38 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -5118,18 +5397,18 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5141,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>77</v>
@@ -5177,7 +5456,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5186,7 +5465,7 @@
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>98</v>
@@ -5195,18 +5474,18 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>284</v>
@@ -5241,9 +5520,7 @@
         <v>287</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5291,7 +5568,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5306,21 +5583,21 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>292</v>
@@ -5334,7 +5611,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5343,21 +5620,21 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
         <v>295</v>
       </c>
+      <c r="N31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5381,37 +5658,37 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5420,28 +5697,28 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5460,19 +5737,17 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5521,7 +5796,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5536,13 +5811,13 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5550,10 +5825,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5576,17 +5851,17 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5635,7 +5910,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5650,13 +5925,13 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5664,10 +5939,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5678,7 +5953,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5687,20 +5962,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5725,10 +5998,10 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5749,13 +6022,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5764,24 +6037,24 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5801,21 +6074,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5863,7 +6136,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5878,13 +6151,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5892,10 +6165,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5915,19 +6188,23 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5975,7 +6252,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5990,24 +6267,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6015,7 +6292,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -6024,22 +6301,24 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6063,13 +6342,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6087,13 +6366,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -6102,13 +6381,13 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6116,21 +6395,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6139,19 +6418,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6177,13 +6456,11 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6201,13 +6478,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -6216,10 +6493,10 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6230,10 +6507,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6253,20 +6530,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6291,10 +6568,10 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6315,7 +6592,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6333,7 +6610,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6344,10 +6621,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6355,7 +6632,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -6367,18 +6644,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6667,7 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>77</v>
@@ -6403,13 +6682,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6427,10 +6706,10 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>86</v>
@@ -6439,16 +6718,16 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6456,21 +6735,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6482,22 +6761,24 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6517,13 +6798,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6541,28 +6822,28 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6570,46 +6851,44 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6633,13 +6912,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6657,28 +6936,28 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6686,10 +6965,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6709,21 +6988,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6771,7 +7048,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6789,7 +7066,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6800,10 +7077,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6823,22 +7100,22 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6887,7 +7164,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6905,10 +7182,10 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6916,21 +7193,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6939,19 +7216,21 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6999,13 +7278,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -7014,13 +7293,13 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7028,21 +7307,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7051,20 +7330,20 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7113,13 +7392,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -7128,13 +7407,13 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7142,10 +7421,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7153,7 +7432,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -7165,16 +7444,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7225,7 +7504,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7237,16 +7516,16 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7254,21 +7533,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7280,18 +7559,18 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7339,28 +7618,28 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7368,45 +7647,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>141</v>
+        <v>428</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7455,25 +7732,25 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7484,18 +7761,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
@@ -7507,22 +7784,20 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7547,10 +7822,10 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7571,10 +7846,10 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>86</v>
@@ -7586,13 +7861,13 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7600,10 +7875,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7611,10 +7886,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7626,16 +7901,18 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7659,13 +7936,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7683,13 +7960,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7698,13 +7975,13 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7712,21 +7989,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7735,20 +8012,22 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7797,13 +8076,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7812,13 +8091,13 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7826,10 +8105,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7849,19 +8128,21 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>234</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
+        <v>459</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7909,7 +8190,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7921,16 +8202,16 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7938,21 +8219,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7964,16 +8245,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>465</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
+        <v>466</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>135</v>
+        <v>467</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7999,10 +8280,10 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8023,75 +8304,73 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>464</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>474</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8139,28 +8418,28 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>129</v>
+        <v>477</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8168,21 +8447,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8194,18 +8473,16 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8229,10 +8506,10 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8253,13 +8530,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8268,24 +8545,24 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8308,13 +8585,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>487</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>488</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8365,25 +8642,25 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>485</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>363</v>
+        <v>490</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8394,14 +8671,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8420,16 +8697,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>365</v>
+        <v>495</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8467,19 +8744,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>491</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8491,13 +8768,13 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>363</v>
+        <v>498</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8508,10 +8785,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8522,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8531,22 +8808,20 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>431</v>
+        <v>503</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8595,13 +8870,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8613,21 +8888,21 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8650,13 +8925,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>158</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8707,7 +8982,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8725,7 +9000,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8736,10 +9011,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8768,7 +9043,7 @@
         <v>133</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>135</v>
@@ -8809,19 +9084,19 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8839,7 +9114,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8850,45 +9125,45 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>508</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
+        <v>509</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>441</v>
+        <v>141</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8937,39 +9212,39 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8989,21 +9264,21 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>234</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9051,7 +9326,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9069,21 +9344,21 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9103,20 +9378,22 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9141,11 +9418,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9163,7 +9442,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9181,21 +9460,21 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9206,7 +9485,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9215,21 +9494,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>234</v>
+        <v>525</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9277,13 +9554,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9295,32 +9572,32 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9329,22 +9606,20 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9393,13 +9668,13 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
@@ -9411,21 +9686,21 @@
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9445,23 +9720,19 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>477</v>
+        <v>158</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9509,7 +9780,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>481</v>
+        <v>160</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9521,38 +9792,38 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>482</v>
+        <v>161</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9564,18 +9835,18 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>485</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>486</v>
+        <v>133</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9611,35 +9882,37 @@
         <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>484</v>
+        <v>168</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>394</v>
+        <v>161</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9650,45 +9923,45 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>508</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>485</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>488</v>
+        <v>141</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9737,30 +10010,2312 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y84" s="2"/>
+      <c r="Z84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AC88" s="2"/>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/master/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
